--- a/natmiOut/OldD4/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H2">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I2">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J2">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.77604459420243</v>
+        <v>0.047924</v>
       </c>
       <c r="N2">
-        <v>3.77604459420243</v>
+        <v>0.143772</v>
       </c>
       <c r="O2">
-        <v>0.3972147064734539</v>
+        <v>0.004523918624404262</v>
       </c>
       <c r="P2">
-        <v>0.3972147064734539</v>
+        <v>0.005628995363396378</v>
       </c>
       <c r="Q2">
-        <v>54.40161950708687</v>
+        <v>0.8836555718893334</v>
       </c>
       <c r="R2">
-        <v>54.40161950708687</v>
+        <v>7.952900147004001</v>
       </c>
       <c r="S2">
-        <v>0.116706183222301</v>
+        <v>0.001440349309087877</v>
       </c>
       <c r="T2">
-        <v>0.116706183222301</v>
+        <v>0.001960789987039687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H3">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I3">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J3">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.73026152353137</v>
+        <v>4.120856</v>
       </c>
       <c r="N3">
-        <v>5.73026152353137</v>
+        <v>12.362568</v>
       </c>
       <c r="O3">
-        <v>0.6027852935265461</v>
+        <v>0.3889996078559396</v>
       </c>
       <c r="P3">
-        <v>0.6027852935265461</v>
+        <v>0.4840221875724928</v>
       </c>
       <c r="Q3">
-        <v>82.55609786968041</v>
+        <v>75.98316846159733</v>
       </c>
       <c r="R3">
-        <v>82.55609786968041</v>
+        <v>683.8485161543759</v>
       </c>
       <c r="S3">
-        <v>0.1771051518575107</v>
+        <v>0.1238517672241597</v>
       </c>
       <c r="T3">
-        <v>0.1771051518575107</v>
+        <v>0.1686030628251485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.0494712063533</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H4">
-        <v>15.0494712063533</v>
+        <v>55.316057</v>
       </c>
       <c r="I4">
-        <v>0.3069128506154923</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J4">
-        <v>0.3069128506154923</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.77604459420243</v>
+        <v>0.1856033333333333</v>
       </c>
       <c r="N4">
-        <v>3.77604459420243</v>
+        <v>0.55681</v>
       </c>
       <c r="O4">
-        <v>0.3972147064734539</v>
+        <v>0.01752054036428885</v>
       </c>
       <c r="P4">
-        <v>0.3972147064734539</v>
+        <v>0.0218003568726368</v>
       </c>
       <c r="Q4">
-        <v>56.8274743943555</v>
+        <v>3.422281522018889</v>
       </c>
       <c r="R4">
-        <v>56.8274743943555</v>
+        <v>30.80053369817</v>
       </c>
       <c r="S4">
-        <v>0.1219102978701638</v>
+        <v>0.005578282967429129</v>
       </c>
       <c r="T4">
-        <v>0.1219102978701638</v>
+        <v>0.007593881094257353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.0494712063533</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H5">
-        <v>15.0494712063533</v>
+        <v>55.316057</v>
       </c>
       <c r="I5">
-        <v>0.3069128506154923</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J5">
-        <v>0.3069128506154923</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.73026152353137</v>
+        <v>6.2390875</v>
       </c>
       <c r="N5">
-        <v>5.73026152353137</v>
+        <v>12.478175</v>
       </c>
       <c r="O5">
-        <v>0.6027852935265461</v>
+        <v>0.5889559331553673</v>
       </c>
       <c r="P5">
-        <v>0.6027852935265461</v>
+        <v>0.488548460191474</v>
       </c>
       <c r="Q5">
-        <v>86.23740580325953</v>
+        <v>115.0405732593292</v>
       </c>
       <c r="R5">
-        <v>86.23740580325953</v>
+        <v>690.243439555975</v>
       </c>
       <c r="S5">
-        <v>0.1850025527453285</v>
+        <v>0.1875149271756074</v>
       </c>
       <c r="T5">
-        <v>0.1850025527453285</v>
+        <v>0.1701797331645171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.42942455136514</v>
+        <v>16.845061</v>
       </c>
       <c r="H6">
-        <v>2.42942455136514</v>
+        <v>50.535183</v>
       </c>
       <c r="I6">
-        <v>0.04954470520532085</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J6">
-        <v>0.04954470520532085</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.77604459420243</v>
+        <v>0.047924</v>
       </c>
       <c r="N6">
-        <v>3.77604459420243</v>
+        <v>0.143772</v>
       </c>
       <c r="O6">
-        <v>0.3972147064734539</v>
+        <v>0.004523918624404262</v>
       </c>
       <c r="P6">
-        <v>0.3972147064734539</v>
+        <v>0.005628995363396378</v>
       </c>
       <c r="Q6">
-        <v>9.173615444205</v>
+        <v>0.8072827033640001</v>
       </c>
       <c r="R6">
-        <v>9.173615444205</v>
+        <v>7.265544330276001</v>
       </c>
       <c r="S6">
-        <v>0.01967988553544532</v>
+        <v>0.001315862334849345</v>
       </c>
       <c r="T6">
-        <v>0.01967988553544532</v>
+        <v>0.001791322198175083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.42942455136514</v>
+        <v>16.845061</v>
       </c>
       <c r="H7">
-        <v>2.42942455136514</v>
+        <v>50.535183</v>
       </c>
       <c r="I7">
-        <v>0.04954470520532085</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J7">
-        <v>0.04954470520532085</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.73026152353137</v>
+        <v>4.120856</v>
       </c>
       <c r="N7">
-        <v>5.73026152353137</v>
+        <v>12.362568</v>
       </c>
       <c r="O7">
-        <v>0.6027852935265461</v>
+        <v>0.3889996078559396</v>
       </c>
       <c r="P7">
-        <v>0.6027852935265461</v>
+        <v>0.4840221875724928</v>
       </c>
       <c r="Q7">
-        <v>13.92123803101012</v>
+        <v>69.416070692216</v>
       </c>
       <c r="R7">
-        <v>13.92123803101012</v>
+        <v>624.744636229944</v>
       </c>
       <c r="S7">
-        <v>0.02986481966987552</v>
+        <v>0.1131474667752677</v>
       </c>
       <c r="T7">
-        <v>0.02986481966987552</v>
+        <v>0.1540309829789454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.87287020472695</v>
+        <v>16.845061</v>
       </c>
       <c r="H8">
-        <v>2.87287020472695</v>
+        <v>50.535183</v>
       </c>
       <c r="I8">
-        <v>0.05858815714460672</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J8">
-        <v>0.05858815714460672</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>3.77604459420243</v>
+        <v>0.1856033333333333</v>
       </c>
       <c r="N8">
-        <v>3.77604459420243</v>
+        <v>0.55681</v>
       </c>
       <c r="O8">
-        <v>0.3972147064734539</v>
+        <v>0.01752054036428885</v>
       </c>
       <c r="P8">
-        <v>0.3972147064734539</v>
+        <v>0.0218003568726368</v>
       </c>
       <c r="Q8">
-        <v>10.84808600640443</v>
+        <v>3.126499471803334</v>
       </c>
       <c r="R8">
-        <v>10.84808600640443</v>
+        <v>28.13849524623</v>
       </c>
       <c r="S8">
-        <v>0.02327207764301555</v>
+        <v>0.005096161329518012</v>
       </c>
       <c r="T8">
-        <v>0.02327207764301555</v>
+        <v>0.00693755469191406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.87287020472695</v>
+        <v>16.845061</v>
       </c>
       <c r="H9">
-        <v>2.87287020472695</v>
+        <v>50.535183</v>
       </c>
       <c r="I9">
-        <v>0.05858815714460672</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J9">
-        <v>0.05858815714460672</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.73026152353137</v>
+        <v>6.2390875</v>
       </c>
       <c r="N9">
-        <v>5.73026152353137</v>
+        <v>12.478175</v>
       </c>
       <c r="O9">
-        <v>0.6027852935265461</v>
+        <v>0.5889559331553673</v>
       </c>
       <c r="P9">
-        <v>0.6027852935265461</v>
+        <v>0.488548460191474</v>
       </c>
       <c r="Q9">
-        <v>16.46229759624653</v>
+        <v>105.0978095218375</v>
       </c>
       <c r="R9">
-        <v>16.46229759624653</v>
+        <v>630.5868571310251</v>
       </c>
       <c r="S9">
-        <v>0.03531607950159117</v>
+        <v>0.171308326622973</v>
       </c>
       <c r="T9">
-        <v>0.03531607950159117</v>
+        <v>0.1554713843461409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.2761942472891</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H10">
-        <v>14.2761942472891</v>
+        <v>14.301766</v>
       </c>
       <c r="I10">
-        <v>0.2911429519547685</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J10">
-        <v>0.2911429519547685</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.77604459420243</v>
+        <v>0.047924</v>
       </c>
       <c r="N10">
-        <v>3.77604459420243</v>
+        <v>0.143772</v>
       </c>
       <c r="O10">
-        <v>0.3972147064734539</v>
+        <v>0.004523918624404262</v>
       </c>
       <c r="P10">
-        <v>0.3972147064734539</v>
+        <v>0.005628995363396378</v>
       </c>
       <c r="Q10">
-        <v>53.90754611325983</v>
+        <v>0.2284659445946667</v>
       </c>
       <c r="R10">
-        <v>53.90754611325983</v>
+        <v>2.056193501352</v>
       </c>
       <c r="S10">
-        <v>0.1156462622025282</v>
+        <v>0.0003723970921650559</v>
       </c>
       <c r="T10">
-        <v>0.1156462622025282</v>
+        <v>0.0005069551426954498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.767255333333333</v>
+      </c>
+      <c r="H11">
+        <v>14.301766</v>
+      </c>
+      <c r="I11">
+        <v>0.08231737196954897</v>
+      </c>
+      <c r="J11">
+        <v>0.09006138928307221</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.120856</v>
+      </c>
+      <c r="N11">
+        <v>12.362568</v>
+      </c>
+      <c r="O11">
+        <v>0.3889996078559396</v>
+      </c>
+      <c r="P11">
+        <v>0.4840221875724928</v>
+      </c>
+      <c r="Q11">
+        <v>19.64517274389867</v>
+      </c>
+      <c r="R11">
+        <v>176.806554695088</v>
+      </c>
+      <c r="S11">
+        <v>0.03202142541588606</v>
+      </c>
+      <c r="T11">
+        <v>0.04359171065661047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.767255333333333</v>
+      </c>
+      <c r="H12">
+        <v>14.301766</v>
+      </c>
+      <c r="I12">
+        <v>0.08231737196954897</v>
+      </c>
+      <c r="J12">
+        <v>0.09006138928307221</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1856033333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.55681</v>
+      </c>
+      <c r="O12">
+        <v>0.01752054036428885</v>
+      </c>
+      <c r="P12">
+        <v>0.0218003568726368</v>
+      </c>
+      <c r="Q12">
+        <v>0.8848184807177778</v>
+      </c>
+      <c r="R12">
+        <v>7.96336632646</v>
+      </c>
+      <c r="S12">
+        <v>0.001442244838274663</v>
+      </c>
+      <c r="T12">
+        <v>0.001963370426816441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.767255333333333</v>
+      </c>
+      <c r="H13">
+        <v>14.301766</v>
+      </c>
+      <c r="I13">
+        <v>0.08231737196954897</v>
+      </c>
+      <c r="J13">
+        <v>0.09006138928307221</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.2390875</v>
+      </c>
+      <c r="N13">
+        <v>12.478175</v>
+      </c>
+      <c r="O13">
+        <v>0.5889559331553673</v>
+      </c>
+      <c r="P13">
+        <v>0.488548460191474</v>
+      </c>
+      <c r="Q13">
+        <v>29.74332315950833</v>
+      </c>
+      <c r="R13">
+        <v>178.45993895705</v>
+      </c>
+      <c r="S13">
+        <v>0.04848130462322319</v>
+      </c>
+      <c r="T13">
+        <v>0.04399935305694985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.922963333333333</v>
+      </c>
+      <c r="H14">
+        <v>8.768889999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.05047152777426636</v>
+      </c>
+      <c r="J14">
+        <v>0.05521964321542102</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.047924</v>
+      </c>
+      <c r="N14">
+        <v>0.143772</v>
+      </c>
+      <c r="O14">
+        <v>0.004523918624404262</v>
+      </c>
+      <c r="P14">
+        <v>0.005628995363396378</v>
+      </c>
+      <c r="Q14">
+        <v>0.1400800947866667</v>
+      </c>
+      <c r="R14">
+        <v>1.26072085308</v>
+      </c>
+      <c r="S14">
+        <v>0.0002283290845001406</v>
+      </c>
+      <c r="T14">
+        <v>0.0003108311156280072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.922963333333333</v>
+      </c>
+      <c r="H15">
+        <v>8.768889999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.05047152777426636</v>
+      </c>
+      <c r="J15">
+        <v>0.05521964321542102</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.120856</v>
+      </c>
+      <c r="N15">
+        <v>12.362568</v>
+      </c>
+      <c r="O15">
+        <v>0.3889996078559396</v>
+      </c>
+      <c r="P15">
+        <v>0.4840221875724928</v>
+      </c>
+      <c r="Q15">
+        <v>12.04511098994667</v>
+      </c>
+      <c r="R15">
+        <v>108.40599890952</v>
+      </c>
+      <c r="S15">
+        <v>0.01963340451207978</v>
+      </c>
+      <c r="T15">
+        <v>0.02672753250610064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.922963333333333</v>
+      </c>
+      <c r="H16">
+        <v>8.768889999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.05047152777426636</v>
+      </c>
+      <c r="J16">
+        <v>0.05521964321542102</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1856033333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.55681</v>
+      </c>
+      <c r="O16">
+        <v>0.01752054036428885</v>
+      </c>
+      <c r="P16">
+        <v>0.0218003568726368</v>
+      </c>
+      <c r="Q16">
+        <v>0.5425117378777777</v>
+      </c>
+      <c r="R16">
+        <v>4.8826056409</v>
+      </c>
+      <c r="S16">
+        <v>0.0008842884396163597</v>
+      </c>
+      <c r="T16">
+        <v>0.001203807928475856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>14.2761942472891</v>
-      </c>
-      <c r="H11">
-        <v>14.2761942472891</v>
-      </c>
-      <c r="I11">
-        <v>0.2911429519547685</v>
-      </c>
-      <c r="J11">
-        <v>0.2911429519547685</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.73026152353137</v>
-      </c>
-      <c r="N11">
-        <v>5.73026152353137</v>
-      </c>
-      <c r="O11">
-        <v>0.6027852935265461</v>
-      </c>
-      <c r="P11">
-        <v>0.6027852935265461</v>
-      </c>
-      <c r="Q11">
-        <v>81.80632659770062</v>
-      </c>
-      <c r="R11">
-        <v>81.80632659770062</v>
-      </c>
-      <c r="S11">
-        <v>0.1754966897522402</v>
-      </c>
-      <c r="T11">
-        <v>0.1754966897522402</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.922963333333333</v>
+      </c>
+      <c r="H17">
+        <v>8.768889999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.05047152777426636</v>
+      </c>
+      <c r="J17">
+        <v>0.05521964321542102</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.2390875</v>
+      </c>
+      <c r="N17">
+        <v>12.478175</v>
+      </c>
+      <c r="O17">
+        <v>0.5889559331553673</v>
+      </c>
+      <c r="P17">
+        <v>0.488548460191474</v>
+      </c>
+      <c r="Q17">
+        <v>18.23662399595833</v>
+      </c>
+      <c r="R17">
+        <v>109.41974397575</v>
+      </c>
+      <c r="S17">
+        <v>0.02972550573807008</v>
+      </c>
+      <c r="T17">
+        <v>0.02697747166521651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.9391485</v>
+      </c>
+      <c r="H18">
+        <v>29.878297</v>
+      </c>
+      <c r="I18">
+        <v>0.2579579565172923</v>
+      </c>
+      <c r="J18">
+        <v>0.1881502562153687</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.047924</v>
+      </c>
+      <c r="N18">
+        <v>0.143772</v>
+      </c>
+      <c r="O18">
+        <v>0.004523918624404262</v>
+      </c>
+      <c r="P18">
+        <v>0.005628995363396378</v>
+      </c>
+      <c r="Q18">
+        <v>0.715943752714</v>
+      </c>
+      <c r="R18">
+        <v>4.295662516284001</v>
+      </c>
+      <c r="S18">
+        <v>0.001166980803801843</v>
+      </c>
+      <c r="T18">
+        <v>0.001059096919858151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.9391485</v>
+      </c>
+      <c r="H19">
+        <v>29.878297</v>
+      </c>
+      <c r="I19">
+        <v>0.2579579565172923</v>
+      </c>
+      <c r="J19">
+        <v>0.1881502562153687</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.120856</v>
+      </c>
+      <c r="N19">
+        <v>12.362568</v>
+      </c>
+      <c r="O19">
+        <v>0.3889996078559396</v>
+      </c>
+      <c r="P19">
+        <v>0.4840221875724928</v>
+      </c>
+      <c r="Q19">
+        <v>61.562079731116</v>
+      </c>
+      <c r="R19">
+        <v>369.372478386696</v>
+      </c>
+      <c r="S19">
+        <v>0.1003455439285462</v>
+      </c>
+      <c r="T19">
+        <v>0.09106889860568776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>14.9391485</v>
+      </c>
+      <c r="H20">
+        <v>29.878297</v>
+      </c>
+      <c r="I20">
+        <v>0.2579579565172923</v>
+      </c>
+      <c r="J20">
+        <v>0.1881502562153687</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1856033333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.55681</v>
+      </c>
+      <c r="O20">
+        <v>0.01752054036428885</v>
+      </c>
+      <c r="P20">
+        <v>0.0218003568726368</v>
+      </c>
+      <c r="Q20">
+        <v>2.772755758761667</v>
+      </c>
+      <c r="R20">
+        <v>16.63653455257</v>
+      </c>
+      <c r="S20">
+        <v>0.004519562789450688</v>
+      </c>
+      <c r="T20">
+        <v>0.004101742731173087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.9391485</v>
+      </c>
+      <c r="H21">
+        <v>29.878297</v>
+      </c>
+      <c r="I21">
+        <v>0.2579579565172923</v>
+      </c>
+      <c r="J21">
+        <v>0.1881502562153687</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.2390875</v>
+      </c>
+      <c r="N21">
+        <v>12.478175</v>
+      </c>
+      <c r="O21">
+        <v>0.5889559331553673</v>
+      </c>
+      <c r="P21">
+        <v>0.488548460191474</v>
+      </c>
+      <c r="Q21">
+        <v>93.20665466699376</v>
+      </c>
+      <c r="R21">
+        <v>372.826618667975</v>
+      </c>
+      <c r="S21">
+        <v>0.1519258689954935</v>
+      </c>
+      <c r="T21">
+        <v>0.09192051795864968</v>
       </c>
     </row>
   </sheetData>
